--- a/braph2genesis/pipelines/functional/example data FUN (fMRI)/xls/GroupName1/covariates/GroupName1_covariates.xlsx
+++ b/braph2genesis/pipelines/functional/example data FUN (fMRI)/xls/GroupName1/covariates/GroupName1_covariates.xlsx
@@ -13,159 +13,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>sub_1</t>
-  </si>
-  <si>
-    <t>sub_2</t>
-  </si>
-  <si>
-    <t>sub_3</t>
-  </si>
-  <si>
-    <t>sub_4</t>
-  </si>
-  <si>
-    <t>sub_5</t>
-  </si>
-  <si>
-    <t>sub_6</t>
-  </si>
-  <si>
-    <t>sub_7</t>
-  </si>
-  <si>
-    <t>sub_8</t>
-  </si>
-  <si>
-    <t>sub_9</t>
-  </si>
-  <si>
-    <t>sub_10</t>
-  </si>
-  <si>
-    <t>sub_11</t>
-  </si>
-  <si>
-    <t>sub_12</t>
-  </si>
-  <si>
-    <t>sub_13</t>
-  </si>
-  <si>
-    <t>sub_14</t>
-  </si>
-  <si>
-    <t>sub_15</t>
-  </si>
-  <si>
-    <t>sub_16</t>
-  </si>
-  <si>
-    <t>sub_17</t>
-  </si>
-  <si>
-    <t>sub_18</t>
-  </si>
-  <si>
-    <t>sub_19</t>
-  </si>
-  <si>
-    <t>sub_20</t>
-  </si>
-  <si>
-    <t>sub_21</t>
-  </si>
-  <si>
-    <t>sub_22</t>
-  </si>
-  <si>
-    <t>sub_23</t>
-  </si>
-  <si>
-    <t>sub_24</t>
-  </si>
-  <si>
-    <t>sub_25</t>
-  </si>
-  <si>
-    <t>sub_26</t>
-  </si>
-  <si>
-    <t>sub_27</t>
-  </si>
-  <si>
-    <t>sub_28</t>
-  </si>
-  <si>
-    <t>sub_29</t>
-  </si>
-  <si>
-    <t>sub_30</t>
-  </si>
-  <si>
-    <t>sub_31</t>
-  </si>
-  <si>
-    <t>sub_32</t>
-  </si>
-  <si>
-    <t>sub_33</t>
-  </si>
-  <si>
-    <t>sub_34</t>
-  </si>
-  <si>
-    <t>sub_35</t>
-  </si>
-  <si>
-    <t>sub_36</t>
-  </si>
-  <si>
-    <t>sub_37</t>
-  </si>
-  <si>
-    <t>sub_38</t>
-  </si>
-  <si>
-    <t>sub_39</t>
-  </si>
-  <si>
-    <t>sub_40</t>
-  </si>
-  <si>
-    <t>sub_41</t>
-  </si>
-  <si>
-    <t>sub_42</t>
-  </si>
-  <si>
-    <t>sub_43</t>
-  </si>
-  <si>
-    <t>sub_44</t>
-  </si>
-  <si>
-    <t>sub_45</t>
-  </si>
-  <si>
-    <t>sub_46</t>
-  </si>
-  <si>
-    <t>sub_47</t>
-  </si>
-  <si>
-    <t>sub_48</t>
-  </si>
-  <si>
-    <t>sub_49</t>
-  </si>
-  <si>
-    <t>sub_50</t>
+    <t>subject1</t>
+  </si>
+  <si>
+    <t>subject2</t>
+  </si>
+  <si>
+    <t>subject3</t>
+  </si>
+  <si>
+    <t>subject4</t>
+  </si>
+  <si>
+    <t>subject5</t>
+  </si>
+  <si>
+    <t>subject6</t>
+  </si>
+  <si>
+    <t>subject7</t>
+  </si>
+  <si>
+    <t>subject8</t>
+  </si>
+  <si>
+    <t>subject9</t>
+  </si>
+  <si>
+    <t>subject10</t>
+  </si>
+  <si>
+    <t>subject11</t>
+  </si>
+  <si>
+    <t>subject12</t>
+  </si>
+  <si>
+    <t>subject13</t>
+  </si>
+  <si>
+    <t>subject14</t>
+  </si>
+  <si>
+    <t>subject15</t>
+  </si>
+  <si>
+    <t>subject16</t>
+  </si>
+  <si>
+    <t>subject17</t>
+  </si>
+  <si>
+    <t>subject18</t>
+  </si>
+  <si>
+    <t>subject19</t>
+  </si>
+  <si>
+    <t>subject20</t>
+  </si>
+  <si>
+    <t>subject21</t>
+  </si>
+  <si>
+    <t>subject22</t>
+  </si>
+  <si>
+    <t>subject23</t>
+  </si>
+  <si>
+    <t>subject24</t>
+  </si>
+  <si>
+    <t>subject25</t>
+  </si>
+  <si>
+    <t>subject26</t>
+  </si>
+  <si>
+    <t>subject27</t>
+  </si>
+  <si>
+    <t>subject28</t>
+  </si>
+  <si>
+    <t>subject29</t>
+  </si>
+  <si>
+    <t>subject30</t>
+  </si>
+  <si>
+    <t>subject31</t>
+  </si>
+  <si>
+    <t>subject32</t>
+  </si>
+  <si>
+    <t>subject33</t>
+  </si>
+  <si>
+    <t>subject34</t>
+  </si>
+  <si>
+    <t>subject35</t>
+  </si>
+  <si>
+    <t>subject36</t>
+  </si>
+  <si>
+    <t>subject37</t>
+  </si>
+  <si>
+    <t>subject38</t>
+  </si>
+  <si>
+    <t>subject39</t>
+  </si>
+  <si>
+    <t>subject40</t>
+  </si>
+  <si>
+    <t>subject41</t>
+  </si>
+  <si>
+    <t>subject42</t>
+  </si>
+  <si>
+    <t>subject43</t>
+  </si>
+  <si>
+    <t>subject44</t>
+  </si>
+  <si>
+    <t>subject45</t>
+  </si>
+  <si>
+    <t>subject46</t>
+  </si>
+  <si>
+    <t>subject47</t>
+  </si>
+  <si>
+    <t>subject48</t>
+  </si>
+  <si>
+    <t>subject49</t>
+  </si>
+  <si>
+    <t>subject50</t>
   </si>
   <si>
     <t>age</t>
@@ -187,240 +187,6 @@
   </si>
   <si>
     <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>edu</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>subject1</t>
-  </si>
-  <si>
-    <t>subject2</t>
-  </si>
-  <si>
-    <t>subject3</t>
-  </si>
-  <si>
-    <t>subject4</t>
-  </si>
-  <si>
-    <t>subject5</t>
-  </si>
-  <si>
-    <t>subject6</t>
-  </si>
-  <si>
-    <t>subject7</t>
-  </si>
-  <si>
-    <t>subject8</t>
-  </si>
-  <si>
-    <t>subject9</t>
-  </si>
-  <si>
-    <t>subject10</t>
-  </si>
-  <si>
-    <t>subject11</t>
-  </si>
-  <si>
-    <t>subject12</t>
-  </si>
-  <si>
-    <t>subject13</t>
-  </si>
-  <si>
-    <t>subject14</t>
-  </si>
-  <si>
-    <t>subject15</t>
-  </si>
-  <si>
-    <t>subject16</t>
-  </si>
-  <si>
-    <t>subject17</t>
-  </si>
-  <si>
-    <t>subject18</t>
-  </si>
-  <si>
-    <t>subject19</t>
-  </si>
-  <si>
-    <t>subject20</t>
-  </si>
-  <si>
-    <t>subject21</t>
-  </si>
-  <si>
-    <t>subject22</t>
-  </si>
-  <si>
-    <t>subject23</t>
-  </si>
-  <si>
-    <t>subject24</t>
-  </si>
-  <si>
-    <t>subject25</t>
-  </si>
-  <si>
-    <t>subject26</t>
-  </si>
-  <si>
-    <t>subject27</t>
-  </si>
-  <si>
-    <t>subject28</t>
-  </si>
-  <si>
-    <t>subject29</t>
-  </si>
-  <si>
-    <t>subject30</t>
-  </si>
-  <si>
-    <t>subject31</t>
-  </si>
-  <si>
-    <t>subject32</t>
-  </si>
-  <si>
-    <t>subject33</t>
-  </si>
-  <si>
-    <t>subject34</t>
-  </si>
-  <si>
-    <t>subject35</t>
-  </si>
-  <si>
-    <t>subject36</t>
-  </si>
-  <si>
-    <t>subject37</t>
-  </si>
-  <si>
-    <t>subject38</t>
-  </si>
-  <si>
-    <t>subject39</t>
-  </si>
-  <si>
-    <t>subject40</t>
-  </si>
-  <si>
-    <t>subject41</t>
-  </si>
-  <si>
-    <t>subject42</t>
-  </si>
-  <si>
-    <t>subject43</t>
-  </si>
-  <si>
-    <t>subject44</t>
-  </si>
-  <si>
-    <t>subject45</t>
-  </si>
-  <si>
-    <t>subject46</t>
-  </si>
-  <si>
-    <t>subject47</t>
-  </si>
-  <si>
-    <t>subject48</t>
-  </si>
-  <si>
-    <t>subject49</t>
-  </si>
-  <si>
-    <t>subject50</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>sex</t>
   </si>
   <si>
     <t>Female</t>
@@ -549,27 +315,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="D2" s="0">
         <v>6</v>
@@ -577,13 +343,13 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="D3" s="0">
         <v>6</v>
@@ -591,69 +357,69 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="D4" s="0">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="D5" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="D6" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="D7" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="D8" s="0">
         <v>6</v>
@@ -661,125 +427,125 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>140</v>
+        <v>57</v>
       </c>
       <c r="D9" s="0">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>140</v>
+        <v>57</v>
       </c>
       <c r="D10" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="D11" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="D12" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="D13" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="D14" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="D15" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="D16" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="B17" s="0">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="D17" s="0">
         <v>5</v>
@@ -787,27 +553,27 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="D18" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="B19" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="D19" s="0">
         <v>6</v>
@@ -815,223 +581,223 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="B20" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="D20" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="B21" s="0">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="D21" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="B22" s="0">
+        <v>63</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>145</v>
-      </c>
       <c r="D22" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="D23" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="B24" s="0">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="D24" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="B25" s="0">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="D25" s="0">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="B26" s="0">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="D26" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="B27" s="0">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="D27" s="0">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="B28" s="0">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="D28" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="B29" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="D29" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="B30" s="0">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="D30" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="B31" s="0">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="D31" s="0">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="B32" s="0">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D32" s="0">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="B33" s="0">
         <v>60</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="D33" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="B34" s="0">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="D34" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="B35" s="0">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="D35" s="0">
         <v>9</v>
@@ -1039,139 +805,139 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="B36" s="0">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="D36" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="B37" s="0">
         <v>77</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="D37" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="B38" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="D38" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="B39" s="0">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="D39" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="B40" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="D40" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="B41" s="0">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="D41" s="0">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="B42" s="0">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="D42" s="0">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="B43" s="0">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="D43" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="B44" s="0">
+        <v>60</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="D44" s="0">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="B45" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="D45" s="0">
         <v>11</v>
@@ -1179,86 +945,86 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="B46" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="D46" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="B47" s="0">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="D47" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="B48" s="0">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="D48" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="B49" s="0">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="D49" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="B50" s="0">
+        <v>56</v>
+      </c>
+      <c r="C50" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="0" t="s">
-        <v>157</v>
-      </c>
       <c r="D50" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="B51" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="D51" s="0">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
